--- a/biology/Zoologie/D'jakoré/D'jakoré.xlsx
+++ b/biology/Zoologie/D'jakoré/D'jakoré.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%27jakor%C3%A9</t>
+          <t>D'jakoré</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le djakoré est une race bovine africaine. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%27jakor%C3%A9</t>
+          <t>D'jakoré</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est très élevée traditionnellement par les Peuls dans le nord du Sénégal. Il s'agit d'une race locale de zébu. 
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>D%27jakor%C3%A9</t>
+          <t>D'jakoré</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle porte une robe claire, blanche à froment. Les muqueuses sont claires et le cornage en lyre haute. Elle porte la bosse traditionnelle des zébus sur le garrot. La vache pèse 550-700 kg et le taureau 820-1100 kg.
 </t>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>D%27jakor%C3%A9</t>
+          <t>D'jakoré</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,7 +589,9 @@
           <t>Aptitudes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une race multi usage, apte à la fourniture de lait, viande et cuir. Elle n'a qu'un rôle économique mineur; elle a une valeur sacrée chez les Peuls et la taille du troupeau donne sa respectabilité à la famille. Les animaux sont donc rarement sacrifiés, encore moins vendus. Cette race est adaptée à la sécheresse et peut se passer de boire plusieurs jours. En revanche, ils sont sensibles aux maladies véhiculées par les insectes, raison de leur absence dans le sud du pays plus humide. 
 </t>
